--- a/src/main/java/com/testautomationpractice/testdata/TestDataExcel.xlsx
+++ b/src/main/java/com/testautomationpractice/testdata/TestDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -36,61 +36,16 @@
     <t>HaZelApermtment2</t>
   </si>
   <si>
-    <t>HaZelApermtment3</t>
-  </si>
-  <si>
-    <t>HaZelApermtment4</t>
-  </si>
-  <si>
-    <t>HaZelApermtment5</t>
-  </si>
-  <si>
-    <t>HaZelApermtment6</t>
-  </si>
-  <si>
-    <t>HaZelApermtment7</t>
-  </si>
-  <si>
     <t>dinehs1</t>
   </si>
   <si>
     <t>dinehs2</t>
   </si>
   <si>
-    <t>dinehs3</t>
-  </si>
-  <si>
-    <t>dinehs4</t>
-  </si>
-  <si>
-    <t>dinehs5</t>
-  </si>
-  <si>
-    <t>dinehs6</t>
-  </si>
-  <si>
-    <t>dinehs7</t>
-  </si>
-  <si>
     <t>Susmitha1</t>
   </si>
   <si>
     <t>Susmitha2</t>
-  </si>
-  <si>
-    <t>Susmitha3</t>
-  </si>
-  <si>
-    <t>Susmitha4</t>
-  </si>
-  <si>
-    <t>Susmitha5</t>
-  </si>
-  <si>
-    <t>Susmitha6</t>
-  </si>
-  <si>
-    <t>Susmitha7</t>
   </si>
 </sst>
 </file>
@@ -432,9 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,10 +411,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>994040499400</v>
@@ -472,10 +425,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>994040499400</v>
@@ -485,74 +438,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>994040499400</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>994040499400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>994040499400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>994040499400</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>994040499400</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
